--- a/proje_dosyasi/users.xlsx
+++ b/proje_dosyasi/users.xlsx
@@ -25,13 +25,13 @@
     <t>Şifre</t>
   </si>
   <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>yılmaz</t>
-  </si>
-  <si>
-    <t>abcdef</t>
+    <t>alş</t>
+  </si>
+  <si>
+    <t>veli</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
